--- a/과일.xlsx
+++ b/과일.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F455A-8713-4BB7-864A-99EBDC788957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A44963-D28E-43F5-A24B-F9505430F49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11000" yWindow="2350" windowWidth="35220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -418,6 +427,7 @@
         <v>5000</v>
       </c>
       <c r="D2">
+        <f t="shared" ref="D2:D7" si="0">B2*C2</f>
         <v>125000</v>
       </c>
     </row>
@@ -432,6 +442,7 @@
         <v>6000</v>
       </c>
       <c r="D3">
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -446,6 +457,7 @@
         <v>4500</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>157500</v>
       </c>
     </row>
@@ -460,6 +472,7 @@
         <v>9000</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
         <v>333000</v>
       </c>
     </row>
@@ -474,7 +487,68 @@
         <v>2000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5500</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8">
+        <f>B8*C8</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>12000</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
